--- a/milestone/交付与里程碑.xlsx
+++ b/milestone/交付与里程碑.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27690" windowHeight="12900"/>
+    <workbookView windowWidth="27920" windowHeight="13000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67">
   <si>
     <t>weeks</t>
   </si>
@@ -222,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -237,7 +237,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,9 +291,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -266,16 +327,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,8 +342,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,34 +358,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -342,38 +373,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -389,19 +389,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,163 +569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,32 +586,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -633,11 +624,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -657,26 +672,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,160 +685,157 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -912,7 +909,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="4C4C4C"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1163,56 +1160,56 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AQ7" sqref="AQ7"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="W7" sqref="W7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
-    <col min="2" max="2" width="4.04166666666667" customWidth="1"/>
-    <col min="3" max="3" width="9.4" customWidth="1"/>
-    <col min="4" max="4" width="19.1333333333333" customWidth="1"/>
-    <col min="5" max="5" width="4.05" customWidth="1"/>
-    <col min="6" max="6" width="1.89166666666667" customWidth="1"/>
-    <col min="7" max="7" width="18.8833333333333" customWidth="1"/>
-    <col min="8" max="8" width="27.325" customWidth="1"/>
-    <col min="9" max="9" width="17.8416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.6166666666667" customWidth="1"/>
-    <col min="11" max="11" width="23.7083333333333" customWidth="1"/>
-    <col min="12" max="12" width="31.5583333333333" customWidth="1"/>
-    <col min="13" max="13" width="42.575" customWidth="1"/>
-    <col min="14" max="14" width="15.5166666666667" customWidth="1"/>
-    <col min="15" max="15" width="11.55" customWidth="1"/>
+    <col min="2" max="2" width="4.03846153846154" customWidth="1"/>
+    <col min="3" max="3" width="9.40384615384615" customWidth="1"/>
+    <col min="4" max="4" width="19.1346153846154" customWidth="1"/>
+    <col min="5" max="5" width="4.04807692307692" customWidth="1"/>
+    <col min="6" max="6" width="1.89423076923077" customWidth="1"/>
+    <col min="7" max="7" width="18.8846153846154" customWidth="1"/>
+    <col min="8" max="8" width="27.3269230769231" customWidth="1"/>
+    <col min="9" max="9" width="17.8461538461538" customWidth="1"/>
+    <col min="10" max="10" width="23.6153846153846" customWidth="1"/>
+    <col min="11" max="11" width="23.7115384615385" customWidth="1"/>
+    <col min="12" max="12" width="31.5576923076923" customWidth="1"/>
+    <col min="13" max="13" width="42.5769230769231" customWidth="1"/>
+    <col min="14" max="14" width="15.5192307692308" customWidth="1"/>
+    <col min="15" max="15" width="11.5480769230769" customWidth="1"/>
     <col min="16" max="16" width="10.25" customWidth="1"/>
-    <col min="17" max="17" width="36.1166666666667" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="50.9416666666667" customWidth="1"/>
-    <col min="19" max="19" width="21.7166666666667" customWidth="1"/>
-    <col min="20" max="20" width="1.89166666666667" customWidth="1"/>
-    <col min="21" max="21" width="29.825" customWidth="1"/>
-    <col min="22" max="22" width="14.825" customWidth="1"/>
-    <col min="23" max="23" width="44.2166666666667" customWidth="1"/>
-    <col min="24" max="24" width="8.53333333333333" customWidth="1"/>
-    <col min="25" max="25" width="1.80833333333333" customWidth="1"/>
-    <col min="27" max="27" width="15.1666666666667" customWidth="1"/>
-    <col min="28" max="28" width="18.7916666666667" customWidth="1"/>
-    <col min="29" max="29" width="10.0916666666667" customWidth="1"/>
-    <col min="30" max="30" width="12.2416666666667" customWidth="1"/>
-    <col min="31" max="31" width="12.8416666666667" customWidth="1"/>
-    <col min="32" max="32" width="6.03333333333333" customWidth="1"/>
-    <col min="33" max="33" width="25.075" customWidth="1"/>
-    <col min="34" max="34" width="8.53333333333333" customWidth="1"/>
+    <col min="17" max="17" width="36.1153846153846" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="50.9423076923077" customWidth="1"/>
+    <col min="19" max="19" width="21.7211538461538" customWidth="1"/>
+    <col min="20" max="20" width="10.8269230769231" customWidth="1"/>
+    <col min="21" max="21" width="29.8269230769231" customWidth="1"/>
+    <col min="22" max="22" width="14.8269230769231" customWidth="1"/>
+    <col min="23" max="23" width="50.7307692307692" customWidth="1"/>
+    <col min="24" max="24" width="3.31730769230769" customWidth="1"/>
+    <col min="25" max="25" width="5.625" customWidth="1"/>
+    <col min="27" max="27" width="15.1634615384615" customWidth="1"/>
+    <col min="28" max="28" width="18.7884615384615" customWidth="1"/>
+    <col min="29" max="29" width="10.0961538461538" customWidth="1"/>
+    <col min="30" max="30" width="12.2403846153846" customWidth="1"/>
+    <col min="31" max="31" width="12.8461538461538" customWidth="1"/>
+    <col min="32" max="32" width="6.02884615384615" customWidth="1"/>
+    <col min="33" max="33" width="25.0769230769231" customWidth="1"/>
+    <col min="34" max="34" width="8.52884615384615" customWidth="1"/>
     <col min="35" max="35" width="15" customWidth="1"/>
-    <col min="36" max="36" width="10.4166666666667" customWidth="1"/>
-    <col min="37" max="37" width="24.4" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="28.525" customWidth="1"/>
-    <col min="39" max="41" width="16.9833333333333" customWidth="1"/>
-    <col min="42" max="42" width="22.925" customWidth="1"/>
-    <col min="43" max="43" width="21.8" customWidth="1"/>
+    <col min="36" max="36" width="10.4134615384615" customWidth="1"/>
+    <col min="37" max="37" width="24.4038461538462" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="28.5288461538462" customWidth="1"/>
+    <col min="39" max="41" width="16.9807692307692" customWidth="1"/>
+    <col min="42" max="42" width="22.9230769230769" customWidth="1"/>
+    <col min="43" max="43" width="21.7980769230769" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45">
@@ -1247,7 +1244,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="2"/>
       <c r="U1" s="2"/>
-      <c r="V1" s="3"/>
+      <c r="V1" s="2"/>
       <c r="W1" s="2" t="s">
         <v>4</v>
       </c>
@@ -1261,21 +1258,21 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
       <c r="AE1" s="2"/>
-      <c r="AF1" s="3"/>
+      <c r="AF1" s="2"/>
       <c r="AG1" s="2">
         <v>7</v>
       </c>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
-      <c r="AK1" s="3"/>
+      <c r="AK1" s="2"/>
       <c r="AL1" s="2">
         <v>8</v>
       </c>
       <c r="AM1" s="2"/>
       <c r="AN1" s="2"/>
       <c r="AO1" s="2"/>
-      <c r="AP1" s="3"/>
+      <c r="AP1" s="2"/>
       <c r="AQ1" s="1">
         <v>9</v>
       </c>
@@ -1295,7 +1292,7 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -1310,7 +1307,7 @@
       <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1325,7 +1322,7 @@
       <c r="N2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
@@ -1340,7 +1337,7 @@
       <c r="S2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="T2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -1355,7 +1352,7 @@
       <c r="X2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="Y2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="Z2" s="1" t="s">
@@ -1370,7 +1367,7 @@
       <c r="AC2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="3" t="s">
+      <c r="AD2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AE2" s="1" t="s">
@@ -1385,7 +1382,7 @@
       <c r="AH2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AI2" s="3" t="s">
+      <c r="AI2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AJ2" s="1" t="s">
@@ -1400,7 +1397,7 @@
       <c r="AM2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AN2" s="3" t="s">
+      <c r="AN2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="AO2" s="1" t="s">
@@ -1687,7 +1684,7 @@
       <c r="Q5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -1699,10 +1696,10 @@
       <c r="U5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="3" t="s">
         <v>51</v>
       </c>
       <c r="X5" s="1" t="s">
@@ -1732,7 +1729,7 @@
       <c r="AF5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG5" s="4" t="s">
+      <c r="AG5" s="3" t="s">
         <v>52</v>
       </c>
       <c r="AH5" s="1" t="s">
@@ -1802,7 +1799,7 @@
       <c r="Q6" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="3"/>
       <c r="S6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1812,8 +1809,8 @@
       <c r="U6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4" t="s">
+      <c r="V6" s="3"/>
+      <c r="W6" s="3" t="s">
         <v>56</v>
       </c>
       <c r="X6" s="1" t="s">
